--- a/genshin/488193479254263993_2021-02-05_14-00-02.xlsx
+++ b/genshin/488193479254263993_2021-02-05_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4115006187</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-13 16:54:55</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44240.70480324074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -606,10 +620,8 @@
           <t>4072588240</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-08 12:40:00</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44235.52777777778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>4072588240</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-07 02:05:57</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44234.08746527778</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -757,10 +767,8 @@
           <t>4072588240</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-02-07 01:08:39</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44234.04767361111</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -832,10 +840,8 @@
           <t>4072581409</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-07 01:06:03</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44234.04586805555</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -907,10 +913,8 @@
           <t>4063206724</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-06 18:06:38</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44233.75460648148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-06 17:49:14</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44233.74252314815</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
@@ -1064,10 +1066,8 @@
           <t>4063206724</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-06 15:40:11</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44233.65290509259</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1139,10 +1139,8 @@
           <t>4067242811</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-06 10:44:27</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44233.44753472223</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1218,10 +1216,8 @@
           <t>4067140471</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-06 10:23:23</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44233.4329050926</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1289,10 +1285,8 @@
           <t>4067123806</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-06 10:22:08</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44233.43203703704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1360,10 +1354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-06 09:20:59</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44233.38957175926</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1434,10 +1426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-06 09:04:06</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44233.37784722223</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1513,10 +1503,8 @@
           <t>4065234272</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-05 23:41:36</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44232.98722222223</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1592,10 +1580,8 @@
           <t>4065065384</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-05 23:20:26</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44232.97252314815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1675,10 +1661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-05 23:19:56</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44232.97217592593</v>
       </c>
       <c r="I17" t="n">
         <v>27</v>
@@ -1746,10 +1730,8 @@
           <t>4063624957</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-05 19:57:14</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44232.83141203703</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1825,10 +1807,8 @@
           <t>4063206724</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:55:00</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44232.78819444445</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1904,10 +1884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:47:09</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44232.78274305556</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1974,10 +1952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:33:46</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44232.77344907408</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2037,10 +2013,8 @@
           <t>4061669684</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:33:36</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44232.77333333333</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2112,10 +2086,8 @@
           <t>4063039866</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:32:32</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44232.77259259259</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2179,10 +2151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:29:43</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44232.77063657407</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2253,10 +2223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:27:28</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44232.76907407407</v>
       </c>
       <c r="I25" t="n">
         <v>13</v>
@@ -2324,10 +2292,8 @@
           <t>4062971190</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-05 18:20:52</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44232.76449074074</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2403,10 +2369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:59:27</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44232.74961805555</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2478,10 +2442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:54:21</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44232.74607638889</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2550,10 +2512,8 @@
           <t>4062701429</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:42:27</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44232.7378125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2624,10 +2584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:18:21</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44232.72107638889</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2699,10 +2657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-05 17:01:04</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44232.70907407408</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2777,10 +2733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:52:53</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44232.7033912037</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2848,10 +2802,8 @@
           <t>4062374530</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:50:53</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44232.70200231481</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2926,10 +2878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:42:37</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44232.69626157408</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2993,10 +2943,8 @@
           <t>4062333448</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:42:27</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44232.69614583333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3067,10 +3015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:40:28</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44232.69476851852</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3141,10 +3087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:40:17</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44232.69464120371</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3216,10 +3160,8 @@
           <t>4062305464</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:35:45</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44232.69149305556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3294,10 +3236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:32:23</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44232.68915509259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3361,10 +3301,8 @@
           <t>4062266394</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:30:11</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44232.68762731482</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3443,10 +3381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:29:27</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44232.68711805555</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3510,10 +3446,8 @@
           <t>4062262167</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:28:41</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44232.68658564815</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3573,10 +3507,8 @@
           <t>4062235044</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:23:45</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44232.68315972222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3645,10 +3577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:21:18</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44232.68145833333</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3731,10 +3661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:13:34</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44232.67608796297</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3802,10 +3730,8 @@
           <t>4062175792</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:13:04</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44232.67574074074</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3881,10 +3807,8 @@
           <t>4062159562</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:11:44</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44232.67481481482</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3956,10 +3880,8 @@
           <t>4062162883</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:11:27</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44232.67461805556</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4031,10 +3953,8 @@
           <t>4062154242</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:10:34</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44232.67400462963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4106,10 +4026,8 @@
           <t>4061520151</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:09:59</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44232.67359953704</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4185,10 +4103,8 @@
           <t>4062148312</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-05 16:08:59</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44232.67290509259</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4267,10 +4183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:55:29</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44232.66353009259</v>
       </c>
       <c r="I52" t="n">
         <v>6</v>
@@ -4345,10 +4259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:54:57</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44232.66315972222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4419,10 +4331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:46:01</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44232.65695601852</v>
       </c>
       <c r="I54" t="n">
         <v>34</v>
@@ -4482,10 +4392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:44:00</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44232.65555555555</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4561,10 +4469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:41:25</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44232.65376157407</v>
       </c>
       <c r="I56" t="n">
         <v>31</v>
@@ -4639,10 +4545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:39:15</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44232.65225694444</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4702,10 +4606,8 @@
           <t>4061965487</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:35:08</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44232.64939814815</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4765,10 +4667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:32:15</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44232.64739583333</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4844,10 +4744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:30:47</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44232.64637731481</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4923,10 +4821,8 @@
           <t>4061532916</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:30:08</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44232.64592592593</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4994,10 +4890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:28:49</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44232.64501157407</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5077,10 +4971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:24:10</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44232.64178240741</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5152,10 +5044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:16:49</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44232.63667824074</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5227,10 +5117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:13:17</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44232.63422453704</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5299,10 +5187,8 @@
           <t>4061842170</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:11:31</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44232.63299768518</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5381,10 +5267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:11:21</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44232.63288194445</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5448,10 +5332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:10:10</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44232.63206018518</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5527,10 +5409,8 @@
           <t>4061818737</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:09:02</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44232.63127314814</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5599,10 +5479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:08:45</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44232.63107638889</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5677,10 +5555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:04:28</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44232.62810185185</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5748,10 +5624,8 @@
           <t>4061794147</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:03:33</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44232.62746527778</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5823,10 +5697,8 @@
           <t>4061542954</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-05 15:01:49</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44232.62626157407</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5902,10 +5774,8 @@
           <t>4061713960</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:57:24</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44232.62319444444</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5965,10 +5835,8 @@
           <t>4061762825</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:57:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44232.62293981481</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6028,10 +5896,8 @@
           <t>4061559636</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:53:12</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44232.62027777778</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6103,10 +5969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:51:55</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44232.61938657407</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6174,10 +6038,8 @@
           <t>4061724325</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:49:36</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44232.61777777778</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6249,10 +6111,8 @@
           <t>4061713960</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:48:26</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44232.61696759259</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6327,10 +6187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:42:35</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44232.6129050926</v>
       </c>
       <c r="I80" t="n">
         <v>287</v>
@@ -6406,10 +6264,8 @@
           <t>4061686959</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:42:09</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44232.61260416666</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6473,10 +6329,8 @@
           <t>4061679169</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:40:47</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44232.61165509259</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6552,10 +6406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:40:16</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44232.61129629629</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6623,10 +6475,8 @@
           <t>4061669684</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:40:02</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44232.61113425926</v>
       </c>
       <c r="I84" t="n">
         <v>7</v>
@@ -6702,10 +6552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:39:19</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44232.61063657407</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6773,10 +6621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:38:43</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44232.61021990741</v>
       </c>
       <c r="I86" t="n">
         <v>10</v>
@@ -6840,10 +6686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:36:37</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44232.60876157408</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6915,10 +6759,8 @@
           <t>4061661321</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:36:15</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44232.60850694445</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -6989,10 +6831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:34:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44232.60703703704</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7052,10 +6892,8 @@
           <t>4061638465</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:33:25</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44232.60653935185</v>
       </c>
       <c r="I90" t="n">
         <v>25</v>
@@ -7119,10 +6957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:32:49</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44232.60612268518</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7198,10 +7034,8 @@
           <t>4061628827</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:32:03</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44232.60559027778</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7277,10 +7111,8 @@
           <t>4061624534</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:31:10</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44232.60497685185</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7356,10 +7188,8 @@
           <t>4061559636</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:31:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44232.60494212963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7427,10 +7257,8 @@
           <t>4061618912</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:29:26</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44232.60377314815</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7506,10 +7334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:29:19</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44232.60369212963</v>
       </c>
       <c r="I96" t="n">
         <v>8</v>
@@ -7573,10 +7399,8 @@
           <t>4061608673</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:27:46</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44232.60261574074</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7659,10 +7483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:26:06</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44232.60145833333</v>
       </c>
       <c r="I98" t="n">
         <v>15</v>
@@ -7726,10 +7548,8 @@
           <t>4061593503</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:24:48</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44232.60055555555</v>
       </c>
       <c r="I99" t="n">
         <v>3</v>
@@ -7797,10 +7617,8 @@
           <t>4061532916</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:24:28</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44232.60032407408</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7876,10 +7694,8 @@
           <t>4061591976</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:23:56</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44232.59995370371</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7951,10 +7767,8 @@
           <t>4061532916</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:23:27</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44232.59961805555</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8030,10 +7844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:21:22</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44232.5981712963</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8101,10 +7913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:20:54</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44232.59784722222</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8182,10 +7992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:20:08</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44232.59731481481</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8261,10 +8069,8 @@
           <t>4061566406</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:19:34</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44232.5969212963</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8340,10 +8146,8 @@
           <t>4061559636</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:19:03</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44232.5965625</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8415,10 +8219,8 @@
           <t>4061562423</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:18:25</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44232.59612268519</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8490,10 +8292,8 @@
           <t>4061553754</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:18:03</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44232.59586805556</v>
       </c>
       <c r="I109" t="n">
         <v>28</v>
@@ -8561,10 +8361,8 @@
           <t>4061532916</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:17:56</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44232.59578703704</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8640,10 +8438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:17:31</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44232.59549768519</v>
       </c>
       <c r="I111" t="n">
         <v>261</v>
@@ -8718,10 +8514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:17:24</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44232.59541666666</v>
       </c>
       <c r="I112" t="n">
         <v>157</v>
@@ -8804,10 +8598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:16:34</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44232.59483796296</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8884,10 +8676,8 @@
           <t>4061542954</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:15:23</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44232.5940162037</v>
       </c>
       <c r="I114" t="n">
         <v>13</v>
@@ -8951,10 +8741,8 @@
           <t>4061546122</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:14:47</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44232.59359953704</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9014,10 +8802,8 @@
           <t>4061541566</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:14:36</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44232.59347222222</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9089,10 +8875,8 @@
           <t>4061541379</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:14:30</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44232.59340277778</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9164,10 +8948,8 @@
           <t>4061537250</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:14:26</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44232.59335648148</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9250,10 +9032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:14:00</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44232.59305555555</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9330,10 +9110,8 @@
           <t>4061520151</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:13:50</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44232.59293981481</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9397,10 +9175,8 @@
           <t>4061535998</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:13:46</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44232.59289351852</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9475,10 +9251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:13:38</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44232.59280092592</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9549,10 +9323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:13:00</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44232.59236111111</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9624,10 +9396,8 @@
           <t>4061532916</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:12:56</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44232.59231481481</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9710,10 +9480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:12:08</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44232.59175925926</v>
       </c>
       <c r="I125" t="n">
         <v>10</v>
@@ -9789,10 +9557,8 @@
           <t>4061531519</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:12:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44232.59174768518</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9864,10 +9630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:11:34</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44232.59136574074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9931,10 +9695,8 @@
           <t>4061525111</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:11:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44232.59106481481</v>
       </c>
       <c r="I128" t="n">
         <v>9</v>
@@ -10010,10 +9772,8 @@
           <t>4061520151</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:30</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44232.590625</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -10089,10 +9849,8 @@
           <t>4061518722</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:30</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44232.590625</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10168,10 +9926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:10:22</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44232.5905324074</v>
       </c>
       <c r="I131" t="n">
         <v>32</v>
@@ -10250,10 +10006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:09:54</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44232.59020833333</v>
       </c>
       <c r="I132" t="n">
         <v>10</v>
@@ -10325,10 +10079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:09:32</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44232.5899537037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10404,10 +10156,8 @@
           <t>4061508128</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:09:22</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44232.58983796297</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10486,10 +10236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:09:05</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44232.5896412037</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10553,10 +10301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:08:34</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44232.58928240741</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10625,10 +10371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:08:16</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44232.58907407407</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10696,10 +10440,8 @@
           <t>4061499646</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:08:10</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44232.58900462963</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10774,10 +10516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:07:35</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44232.58859953703</v>
       </c>
       <c r="I139" t="n">
         <v>37</v>
@@ -10841,10 +10581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:06:07</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44232.58758101852</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10920,10 +10658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:06:04</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44232.58754629629</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -11006,10 +10742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:05:39</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44232.58725694445</v>
       </c>
       <c r="I142" t="n">
         <v>447</v>
@@ -11077,10 +10811,8 @@
           <t>4061489640</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:05:27</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44232.58711805556</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11156,10 +10888,8 @@
           <t>4061479425</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:04:34</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44232.58650462963</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11231,10 +10961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:04:03</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44232.58614583333</v>
       </c>
       <c r="I145" t="n">
         <v>10</v>
@@ -11309,10 +11037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:04:03</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44232.58614583333</v>
       </c>
       <c r="I146" t="n">
         <v>649</v>
@@ -11376,10 +11102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:02:55</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44232.5853587963</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11455,10 +11179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:02:23</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44232.58498842592</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11522,10 +11244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:01:17</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44232.58422453704</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11597,10 +11317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:01:15</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44232.58420138889</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11668,10 +11386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:59</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44232.58401620371</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11739,10 +11455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:45</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44232.58385416667</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11815,10 +11529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:29</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44232.58366898148</v>
       </c>
       <c r="I153" t="n">
         <v>146</v>
@@ -11895,10 +11607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-05 14:00:21</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44232.58357638889</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
